--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johns Stuff\KSPDev\GameData\STUCK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="336">
   <si>
     <t>Part Config Path</t>
   </si>
@@ -31,9 +36,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Need to see if mask is viable for current part texture.</t>
-  </si>
-  <si>
     <t>Needs flag mesh exclude</t>
   </si>
   <si>
@@ -130,9 +132,6 @@
     <t>Squad\Parts\Aero\protectiveRocketNoseMk12\rocketNoseCone_size3.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Aero\protectiveRocketNoseMk7\protectiveRocketNoseMk7.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Aero\protectiveRocketNoseMk7_v2\protectiveRocketNoseMk7_v2.cfg</t>
   </si>
   <si>
@@ -970,9 +969,6 @@
     <t>Squad\Parts\Utility\spotLightMk2\spotLightMk2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Utility\stackBiCoupler\stackBiCoupler.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Utility\stackCouplers\stackBiCoupler_v2.cfg</t>
   </si>
   <si>
@@ -982,9 +978,6 @@
     <t>Squad\Parts\Utility\stackCouplers\stackTriCoupler_v2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Utility\stackTriCoupler\stackTriCoupler.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Wheel\LandingGear\GearExtraLarge.cfg</t>
   </si>
   <si>
@@ -1015,21 +1008,9 @@
     <t>Squad\Parts\Wheel\roverWheelXL3\roverWheelXL3.cfg</t>
   </si>
   <si>
-    <t>Need normalization calculated</t>
-  </si>
-  <si>
-    <t>Need normalization calculated, Truss is extra shiny because stock texture has high gloss</t>
-  </si>
-  <si>
-    <t>LEGACY</t>
-  </si>
-  <si>
     <t>no mask exists</t>
   </si>
   <si>
-    <t>legacy part - no need to do</t>
-  </si>
-  <si>
     <t>Needs default colors set</t>
   </si>
   <si>
@@ -1037,6 +1018,15 @@
   </si>
   <si>
     <t>Mask From MWNN</t>
+  </si>
+  <si>
+    <t>Needs Shroud handled</t>
+  </si>
+  <si>
+    <t>Needs normalization data</t>
+  </si>
+  <si>
+    <t>Might need mask redo</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1360,12 +1350,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1527,9 +1511,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1575,11 +1558,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1601,9 +1587,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1627,6 +1616,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1666,16 +1662,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1690,16 +1682,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1714,9 +1702,271 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1830,6 +2080,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1878,7 +2131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1913,7 +2166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2122,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,11 +2388,12 @@
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2153,314 +2407,290 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>333</v>
-      </c>
-      <c r="G13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
@@ -2474,15 +2704,12 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>333</v>
-      </c>
-      <c r="G16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2497,15 +2724,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2520,15 +2744,12 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2543,15 +2764,12 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2566,15 +2784,12 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2589,15 +2804,12 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2611,13 +2823,13 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>339</v>
+      <c r="F22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2631,13 +2843,13 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>339</v>
+      <c r="F23" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2651,13 +2863,13 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>339</v>
+      <c r="F24" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2666,12 +2878,12 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2680,12 +2892,12 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2694,12 +2906,12 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2708,12 +2920,12 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2728,15 +2940,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G29" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2751,15 +2963,12 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G30" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2774,358 +2983,321 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>333</v>
-      </c>
-      <c r="G31" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>333</v>
-      </c>
-      <c r="G36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>333</v>
-      </c>
-      <c r="G37" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>333</v>
-      </c>
-      <c r="G40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>333</v>
-      </c>
-      <c r="G41" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>333</v>
-      </c>
-      <c r="G42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>333</v>
-      </c>
-      <c r="G43" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>333</v>
-      </c>
-      <c r="G44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>333</v>
-      </c>
-      <c r="G45" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>333</v>
-      </c>
-      <c r="G47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
       <c r="B48" t="b">
         <v>0</v>
       </c>
@@ -3139,15 +3311,12 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -3162,15 +3331,12 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -3185,15 +3351,12 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -3208,15 +3371,12 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
-      </c>
-      <c r="G51" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
@@ -3231,15 +3391,12 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>333</v>
-      </c>
-      <c r="G52" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -3254,15 +3411,12 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="b">
         <v>0</v>
@@ -3277,15 +3431,12 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>333</v>
-      </c>
-      <c r="G54" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
@@ -3300,15 +3451,12 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>333</v>
-      </c>
-      <c r="G55" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -3323,15 +3471,12 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>333</v>
-      </c>
-      <c r="G56" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
@@ -3346,15 +3491,12 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
-      </c>
-      <c r="G57" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
@@ -3369,15 +3511,12 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>333</v>
-      </c>
-      <c r="G58" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -3392,15 +3531,12 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
-      </c>
-      <c r="G59" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -3415,15 +3551,12 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
-      </c>
-      <c r="G60" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
@@ -3438,1500 +3571,1716 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
-      </c>
-      <c r="G61" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" t="b">
-        <v>0</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>333</v>
-      </c>
-      <c r="G62" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="b">
-        <v>0</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" t="s">
+        <v>330</v>
+      </c>
+      <c r="H96" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>334</v>
+      </c>
+      <c r="G97" t="s">
+        <v>330</v>
+      </c>
+      <c r="H97" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>334</v>
+      </c>
+      <c r="G98" t="s">
+        <v>330</v>
+      </c>
+      <c r="H98" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>334</v>
+      </c>
+      <c r="G99" t="s">
+        <v>330</v>
+      </c>
+      <c r="H99" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" t="s">
+        <v>330</v>
+      </c>
+      <c r="H100" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" t="s">
+        <v>330</v>
+      </c>
+      <c r="H101" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>334</v>
+      </c>
+      <c r="G102" t="s">
+        <v>330</v>
+      </c>
+      <c r="H102" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>334</v>
+      </c>
+      <c r="G103" t="s">
+        <v>330</v>
+      </c>
+      <c r="H103" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="G315" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="G316" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="G317" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="G318" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="G319" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>325</v>
+      <c r="G320" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+      <c r="C321" t="b">
+        <v>1</v>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
+      </c>
+      <c r="G321" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+      <c r="C322" t="b">
+        <v>1</v>
+      </c>
+      <c r="D322" t="b">
+        <v>1</v>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+      <c r="C323" t="b">
+        <v>1</v>
+      </c>
+      <c r="D323" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" t="b">
+        <v>1</v>
+      </c>
+      <c r="G323" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>329</v>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-      <c r="C324" t="b">
-        <v>1</v>
-      </c>
-      <c r="D324" t="b">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="G324" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B33:E33 B1:B1048576">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+  <conditionalFormatting sqref="B1:B322 B324:B1048576">
+    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="C1:C322 C324:C1048576">
+    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="32">
+    <cfRule type="containsBlanks" dxfId="55" priority="40">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E2 D16:E17 D32:E34 D29:D31 D63:E63 D35:D62 D65:E1048576 D64 D22:E28">
-    <cfRule type="containsBlanks" dxfId="24" priority="25">
+  <conditionalFormatting sqref="D1:E2 D16:E17 D29:D31 D62:E62 D34:D61 D63 D22:E28 D32:E33 D64:E322 D324:E1048576">
+    <cfRule type="containsBlanks" dxfId="54" priority="33">
       <formula>LEN(TRIM(D1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E15 E3:E21">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E24">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E31">
-    <cfRule type="containsBlanks" dxfId="17" priority="16">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="46" priority="24">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E31">
-    <cfRule type="containsBlanks" dxfId="14" priority="13">
+    <cfRule type="containsBlanks" dxfId="44" priority="21">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E62">
-    <cfRule type="containsBlanks" dxfId="11" priority="10">
-      <formula>LEN(TRIM(E35))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="E34:E61">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="containsBlanks" dxfId="40" priority="18">
+      <formula>LEN(TRIM(E34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E62">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
-      <formula>LEN(TRIM(E35))=0</formula>
+  <conditionalFormatting sqref="E34:E61">
+    <cfRule type="containsBlanks" dxfId="38" priority="15">
+      <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(E64))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="containsBlanks" dxfId="34" priority="12">
+      <formula>LEN(TRIM(E63))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(E64))=0</formula>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsBlanks" dxfId="32" priority="9">
+      <formula>LEN(TRIM(E63))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B323">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C323">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="-1">
+      <formula>LEN(TRIM(C323))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D323:E323">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(D323))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johns Stuff\KSPDev\GameData\STUCK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="stockParts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="317">
   <si>
     <t>Part Config Path</t>
   </si>
@@ -30,15 +25,9 @@
     <t>Config Created</t>
   </si>
   <si>
-    <t>Uses Variants?</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Needs flag mesh exclude</t>
-  </si>
-  <si>
     <t>Squad\Parts\Aero\aerodynamicNoseCone\aerodynamicNoseCone.cfg</t>
   </si>
   <si>
@@ -252,9 +241,6 @@
     <t>Squad\Parts\Command\mk1LanderCan\mk1LanderCan.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\mk1pod\mk1Pod.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\mk1pod_v2\mk1Pod_v2.cfg</t>
   </si>
   <si>
@@ -267,9 +253,6 @@
     <t>Squad\Parts\Command\mk2DroneCore\mk2Dronecore.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\mk2LanderCan\mk2LanderCan.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\mk2LanderCan_v2\mk2LanderCan_v2.cfg</t>
   </si>
   <si>
@@ -279,27 +262,15 @@
     <t>Squad\Parts\Command\probeCoreCube\probeCoreCube.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\probeCoreHex\probeCoreHex.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\probeCoreHex_v2\probeCoreHex_v2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\probeCoreOcto\probeCoreOcto.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Command\probeCoreOcto2\probeCoreOcto2.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\probeCoreOcto2_v2\probeCoreOcto2_v2.cfg</t>
   </si>
   <si>
     <t>Squad\Parts\Command\probeCoreOcto_v2\probeCoreOcto_v2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\probeRoverBody\probeRoverBody.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\probeRoverBody_v2\probeRoverBody_v2.cfg</t>
   </si>
   <si>
@@ -309,9 +280,6 @@
     <t>Squad\Parts\Command\probeStackSmall\probeStackSmall.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Command\probeStackSphere\probeStackSphere.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Command\probeStackSphere_v2\probeStackSphere_v2.cfg</t>
   </si>
   <si>
@@ -396,36 +364,21 @@
     <t>Squad\Parts\Engine\jetEngines\jetEngineTurbo.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\liquidEngine24-77\liquidEngine24-77.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\liquidEngine24-77_v2\liquidEngine24-77_v2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\liquidEngine48-7S\liquidEngine48-7S.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\liquidEngine48-7S_v2\liquidEngine48-7S_v2.cfg</t>
   </si>
   <si>
     <t>Squad\Parts\Engine\liquidEngineAerospike\liquidEngineAerospike.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\liquidEngineLV-1\liquidEngineLV-1.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Engine\liquidEngineLV-1R\liquidEngineLV-1R.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\liquidEngineLV-1_v2\liquidEngineLV-1R _v2.cfg</t>
   </si>
   <si>
     <t>Squad\Parts\Engine\liquidEngineLV-1_v2\liquidEngineLV-1_v2.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\liquidEngineLV-909\liquidEngineLV-909.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\liquidEngineLV-909_v2\liquidEngineLV-909_v2.cfg</t>
   </si>
   <si>
@@ -444,9 +397,6 @@
     <t>Squad\Parts\Engine\liquidEngineMk55\liquidEngineMk55.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\liquidEnginePoodle\liquidEnginePoodle.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\liquidEnginePoodle_v2\liquidEnginePoodle_v2.cfg</t>
   </si>
   <si>
@@ -486,12 +436,6 @@
     <t>Squad\Parts\Engine\solidBoosterBACC\solidBoosterBACC.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Engine\solidBoosterRT-10\solidBoosterRT-10.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Engine\solidBoosterRT-5\solidBoosterRT-5.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Engine\solidBoosterSep\solidBoosterSep.cfg</t>
   </si>
   <si>
@@ -651,18 +595,6 @@
     <t>Squad\Parts\Misc\AsteroidDay\LgRadialSolar.cfg</t>
   </si>
   <si>
-    <t>Squad\Parts\Misc\PotatoRoid\part.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Prebuilt\flag.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Prebuilt\kerbalEVA.cfg</t>
-  </si>
-  <si>
-    <t>Squad\Parts\Prebuilt\kerbalEVAfemale.cfg</t>
-  </si>
-  <si>
     <t>Squad\Parts\Resources\FuelCell\FuelCell.cfg</t>
   </si>
   <si>
@@ -1008,12 +940,6 @@
     <t>Squad\Parts\Wheel\roverWheelXL3\roverWheelXL3.cfg</t>
   </si>
   <si>
-    <t>no mask exists</t>
-  </si>
-  <si>
-    <t>Needs default colors set</t>
-  </si>
-  <si>
     <t>Needs converted to DDS</t>
   </si>
   <si>
@@ -1023,10 +949,22 @@
     <t>Needs Shroud handled</t>
   </si>
   <si>
-    <t>Needs normalization data</t>
-  </si>
-  <si>
-    <t>Might need mask redo</t>
+    <t>Needs shroud handled</t>
+  </si>
+  <si>
+    <t>needs mesh excludes configured</t>
+  </si>
+  <si>
+    <t>CurrentTextureSet</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Default Colors</t>
+  </si>
+  <si>
+    <t>Fairing tip uses whole texture</t>
   </si>
 </sst>
 </file>
@@ -1558,17 +1496,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1576,13 +1504,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1597,57 +1518,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1672,406 +1545,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2080,9 +1556,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2131,7 +1604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2166,7 +1639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2375,204 +1848,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="str">
+        <f>"MASKS: " &amp; COUNTIF(B2:B350, TRUE)</f>
+        <v>MASKS: 205</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"TOTAL:" &amp; COUNTIF(A2:A350, "&gt;""")</f>
+        <v>TOTAL:304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -2583,16 +2101,19 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -2603,16 +2124,19 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2623,16 +2147,19 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2643,16 +2170,19 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2663,16 +2193,19 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2683,13 +2216,16 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2703,13 +2239,16 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2723,93 +2262,132 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2818,18 +2396,27 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>308</v>
+      </c>
+      <c r="I22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2838,18 +2425,27 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2858,77 +2454,122 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2939,19 +2580,19 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>330</v>
-      </c>
-      <c r="G29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2962,16 +2603,19 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2982,44 +2626,65 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -3030,16 +2695,19 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -3050,16 +2718,19 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -3070,16 +2741,19 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -3090,16 +2764,19 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -3110,16 +2787,19 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3130,16 +2810,19 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3150,16 +2833,19 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -3170,16 +2856,19 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -3190,16 +2879,19 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -3210,16 +2902,19 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -3230,16 +2925,19 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -3250,16 +2948,19 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3270,16 +2971,19 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3290,16 +2994,19 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -3310,196 +3017,229 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -3510,16 +3250,19 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3530,16 +3273,19 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3550,16 +3296,19 @@
       <c r="E60" t="b">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3570,21 +3319,42 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3595,179 +3365,758 @@
       <c r="E63" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>300</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>301</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>302</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>303</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>31</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>32</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>33</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>36</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>43</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>44</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -3778,22 +4127,19 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
-      <c r="F96" t="s">
-        <v>334</v>
-      </c>
-      <c r="G96" t="s">
-        <v>330</v>
-      </c>
-      <c r="H96" t="s">
-        <v>335</v>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -3804,22 +4150,19 @@
       <c r="E97" t="b">
         <v>0</v>
       </c>
-      <c r="F97" t="s">
-        <v>334</v>
-      </c>
-      <c r="G97" t="s">
-        <v>330</v>
-      </c>
-      <c r="H97" t="s">
-        <v>335</v>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -3830,22 +4173,19 @@
       <c r="E98" t="b">
         <v>0</v>
       </c>
-      <c r="F98" t="s">
-        <v>334</v>
-      </c>
-      <c r="G98" t="s">
-        <v>330</v>
-      </c>
-      <c r="H98" t="s">
-        <v>335</v>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -3856,22 +4196,19 @@
       <c r="E99" t="b">
         <v>0</v>
       </c>
-      <c r="F99" t="s">
-        <v>334</v>
-      </c>
-      <c r="G99" t="s">
-        <v>330</v>
-      </c>
-      <c r="H99" t="s">
-        <v>335</v>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -3882,22 +4219,19 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
-      <c r="F100" t="s">
-        <v>334</v>
-      </c>
-      <c r="G100" t="s">
-        <v>330</v>
-      </c>
-      <c r="H100" t="s">
-        <v>335</v>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -3908,22 +4242,19 @@
       <c r="E101" t="b">
         <v>0</v>
       </c>
-      <c r="F101" t="s">
-        <v>334</v>
-      </c>
-      <c r="G101" t="s">
-        <v>330</v>
-      </c>
-      <c r="H101" t="s">
-        <v>335</v>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="b">
         <v>1</v>
@@ -3934,22 +4265,19 @@
       <c r="E102" t="b">
         <v>0</v>
       </c>
-      <c r="F102" t="s">
-        <v>334</v>
-      </c>
-      <c r="G102" t="s">
-        <v>330</v>
-      </c>
-      <c r="H102" t="s">
-        <v>335</v>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -3960,1328 +4288,4687 @@
       <c r="E103" t="b">
         <v>0</v>
       </c>
-      <c r="F103" t="s">
-        <v>334</v>
-      </c>
-      <c r="G103" t="s">
-        <v>330</v>
-      </c>
-      <c r="H103" t="s">
-        <v>335</v>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>76</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>78</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>79</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>80</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>99</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>173</v>
+      </c>
+      <c r="B139" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>199</v>
+      </c>
+      <c r="B148" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" t="b">
+        <v>1</v>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>219</v>
+      </c>
+      <c r="B159" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>231</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>232</v>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>233</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" t="b">
+        <v>1</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
+      <c r="B166" t="b">
+        <v>1</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>241</v>
+      </c>
+      <c r="B167" t="b">
+        <v>1</v>
+      </c>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>244</v>
+      </c>
+      <c r="B170" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" t="b">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>247</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>248</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>252</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>253</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>255</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>258</v>
+      </c>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>259</v>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
+      </c>
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>262</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>265</v>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187" t="b">
+        <v>1</v>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" t="b">
+        <v>1</v>
+      </c>
+      <c r="C189" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+      <c r="G191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+      <c r="G193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>277</v>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+      <c r="G194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>278</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+      <c r="C195" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+      <c r="G195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>286</v>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>287</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>288</v>
+      </c>
+      <c r="B198" t="b">
+        <v>1</v>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>292</v>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>304</v>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>305</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+      <c r="G202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>306</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+      <c r="G203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>307</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+      <c r="G204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>89</v>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>90</v>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+      <c r="F206" t="b">
+        <v>0</v>
+      </c>
+      <c r="G206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
+      <c r="G207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>122</v>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>34</v>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>82</v>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" t="b">
+        <v>0</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>84</v>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="b">
+        <v>0</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>83</v>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" t="b">
+        <v>0</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
+      <c r="G215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>85</v>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="b">
+        <v>0</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>88</v>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>106</v>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>107</v>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>108</v>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>109</v>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>110</v>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>111</v>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
+        <v>0</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+      <c r="F228" t="b">
+        <v>0</v>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+      <c r="D229" t="b">
+        <v>0</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229" t="b">
+        <v>0</v>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" t="b">
+        <v>0</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+      <c r="F231" t="b">
+        <v>0</v>
+      </c>
+      <c r="G231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+      <c r="F232" t="b">
+        <v>0</v>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="F233" t="b">
+        <v>0</v>
+      </c>
+      <c r="G233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
+      <c r="G234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" t="b">
+        <v>0</v>
+      </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+      <c r="F235" t="b">
+        <v>0</v>
+      </c>
+      <c r="G235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236" t="b">
+        <v>0</v>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+      <c r="F236" t="b">
+        <v>0</v>
+      </c>
+      <c r="G236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" t="b">
+        <v>0</v>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
+      <c r="G237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238" t="b">
+        <v>0</v>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+      <c r="F238" t="b">
+        <v>0</v>
+      </c>
+      <c r="G238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+      <c r="D239" t="b">
+        <v>0</v>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+      <c r="F239" t="b">
+        <v>0</v>
+      </c>
+      <c r="G239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" t="b">
+        <v>0</v>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
+      <c r="G240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" t="b">
+        <v>0</v>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
+      <c r="G241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+      <c r="F242" t="b">
+        <v>0</v>
+      </c>
+      <c r="G242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" t="b">
+        <v>0</v>
+      </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
+      <c r="G243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" t="b">
+        <v>0</v>
+      </c>
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
+      <c r="G244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
+      <c r="G245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" t="b">
+        <v>0</v>
+      </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" t="b">
+        <v>0</v>
+      </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+      <c r="F247" t="b">
+        <v>0</v>
+      </c>
+      <c r="G247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" t="b">
+        <v>0</v>
+      </c>
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
+      <c r="F248" t="b">
+        <v>0</v>
+      </c>
+      <c r="G248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" t="b">
+        <v>0</v>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249" t="b">
+        <v>0</v>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" t="b">
+        <v>0</v>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
+      <c r="G250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" t="b">
+        <v>0</v>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
+      <c r="G251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" t="b">
+        <v>0</v>
+      </c>
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
+      <c r="G252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" t="b">
+        <v>0</v>
+      </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+      <c r="F253" t="b">
+        <v>0</v>
+      </c>
+      <c r="G253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" t="b">
+        <v>0</v>
+      </c>
+      <c r="E254" t="b">
+        <v>0</v>
+      </c>
+      <c r="F254" t="b">
+        <v>0</v>
+      </c>
+      <c r="G254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255" t="b">
+        <v>0</v>
+      </c>
+      <c r="G255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" t="b">
+        <v>0</v>
+      </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256" t="b">
+        <v>0</v>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" t="b">
+        <v>0</v>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" t="b">
+        <v>0</v>
+      </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" t="b">
+        <v>0</v>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" t="b">
+        <v>0</v>
+      </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" t="b">
+        <v>0</v>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" t="b">
+        <v>0</v>
+      </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
+      <c r="F261" t="b">
+        <v>0</v>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" t="b">
+        <v>0</v>
+      </c>
+      <c r="E262" t="b">
+        <v>0</v>
+      </c>
+      <c r="F262" t="b">
+        <v>0</v>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" t="b">
+        <v>0</v>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" t="b">
+        <v>0</v>
+      </c>
+      <c r="G263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" t="b">
+        <v>0</v>
+      </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" t="b">
+        <v>0</v>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" t="b">
+        <v>0</v>
+      </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" t="b">
+        <v>0</v>
+      </c>
+      <c r="G265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" t="b">
+        <v>0</v>
+      </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" t="b">
+        <v>0</v>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" t="b">
+        <v>0</v>
+      </c>
+      <c r="G267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" t="b">
+        <v>0</v>
+      </c>
+      <c r="G268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="b">
+        <v>0</v>
+      </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" t="b">
+        <v>0</v>
+      </c>
+      <c r="G269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" t="b">
+        <v>0</v>
+      </c>
+      <c r="G270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" t="b">
+        <v>0</v>
+      </c>
+      <c r="G271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" t="b">
+        <v>0</v>
+      </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" t="b">
+        <v>0</v>
+      </c>
+      <c r="G272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="b">
+        <v>0</v>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" t="b">
+        <v>0</v>
+      </c>
+      <c r="G273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" t="b">
+        <v>0</v>
+      </c>
+      <c r="E274" t="b">
+        <v>0</v>
+      </c>
+      <c r="F274" t="b">
+        <v>0</v>
+      </c>
+      <c r="G274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" t="b">
+        <v>0</v>
+      </c>
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" t="b">
+        <v>0</v>
+      </c>
+      <c r="G275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" t="b">
+        <v>0</v>
+      </c>
+      <c r="E276" t="b">
+        <v>0</v>
+      </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
+      <c r="G276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" t="b">
+        <v>0</v>
+      </c>
+      <c r="G277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" t="b">
+        <v>0</v>
+      </c>
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" t="b">
+        <v>0</v>
+      </c>
+      <c r="G278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" t="b">
+        <v>0</v>
+      </c>
+      <c r="G279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+      <c r="C280" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
+      <c r="F280" t="b">
+        <v>0</v>
+      </c>
+      <c r="G280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+      <c r="C281" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
+      <c r="F281" t="b">
+        <v>0</v>
+      </c>
+      <c r="G281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="b">
+        <v>0</v>
+      </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="b">
+        <v>0</v>
+      </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+      <c r="F283" t="b">
+        <v>0</v>
+      </c>
+      <c r="G283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284" t="b">
+        <v>0</v>
+      </c>
+      <c r="F284" t="b">
+        <v>0</v>
+      </c>
+      <c r="G284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" t="b">
+        <v>0</v>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+      <c r="F285" t="b">
+        <v>0</v>
+      </c>
+      <c r="G285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286" t="b">
+        <v>0</v>
+      </c>
+      <c r="E286" t="b">
+        <v>0</v>
+      </c>
+      <c r="F286" t="b">
+        <v>0</v>
+      </c>
+      <c r="G286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="b">
+        <v>0</v>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
+      <c r="G287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" t="b">
+        <v>0</v>
+      </c>
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
+      <c r="F288" t="b">
+        <v>0</v>
+      </c>
+      <c r="G288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289" t="b">
+        <v>0</v>
+      </c>
+      <c r="F289" t="b">
+        <v>0</v>
+      </c>
+      <c r="G289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" t="b">
+        <v>0</v>
+      </c>
+      <c r="E290" t="b">
+        <v>0</v>
+      </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
+      <c r="G290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" t="b">
+        <v>0</v>
+      </c>
+      <c r="E291" t="b">
+        <v>0</v>
+      </c>
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
+      <c r="G291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" t="b">
+        <v>0</v>
+      </c>
+      <c r="E292" t="b">
+        <v>0</v>
+      </c>
+      <c r="F292" t="b">
+        <v>0</v>
+      </c>
+      <c r="G292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
+      <c r="G293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>282</v>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+      <c r="C294" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" t="b">
+        <v>0</v>
+      </c>
+      <c r="E294" t="b">
+        <v>0</v>
+      </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
+      <c r="G294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" t="b">
+        <v>0</v>
+      </c>
+      <c r="E295" t="b">
+        <v>0</v>
+      </c>
+      <c r="F295" t="b">
+        <v>0</v>
+      </c>
+      <c r="G295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" t="b">
+        <v>0</v>
+      </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+      <c r="F296" t="b">
+        <v>0</v>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" t="b">
+        <v>0</v>
+      </c>
+      <c r="E297" t="b">
+        <v>0</v>
+      </c>
+      <c r="F297" t="b">
+        <v>0</v>
+      </c>
+      <c r="G297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+      <c r="C298" t="b">
+        <v>0</v>
+      </c>
+      <c r="D298" t="b">
+        <v>0</v>
+      </c>
+      <c r="E298" t="b">
+        <v>0</v>
+      </c>
+      <c r="F298" t="b">
+        <v>0</v>
+      </c>
+      <c r="G298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" t="b">
+        <v>0</v>
+      </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
+      <c r="F299" t="b">
+        <v>0</v>
+      </c>
+      <c r="G299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+      <c r="C300" t="b">
+        <v>0</v>
+      </c>
+      <c r="D300" t="b">
+        <v>0</v>
+      </c>
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
+      <c r="F300" t="b">
+        <v>0</v>
+      </c>
+      <c r="G300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B301" t="b">
+        <v>0</v>
+      </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" t="b">
+        <v>0</v>
+      </c>
+      <c r="E301" t="b">
+        <v>0</v>
+      </c>
+      <c r="F301" t="b">
+        <v>0</v>
+      </c>
+      <c r="G301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+      <c r="C302" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" t="b">
+        <v>0</v>
+      </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
+      <c r="F302" t="b">
+        <v>0</v>
+      </c>
+      <c r="G302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+      <c r="C303" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" t="b">
+        <v>0</v>
+      </c>
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
+      <c r="F303" t="b">
+        <v>0</v>
+      </c>
+      <c r="G303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>308</v>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+      <c r="C304" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" t="b">
+        <v>0</v>
+      </c>
+      <c r="E304" t="b">
+        <v>0</v>
+      </c>
+      <c r="F304" t="b">
+        <v>0</v>
+      </c>
+      <c r="G304" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>319</v>
-      </c>
-      <c r="G315" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>320</v>
-      </c>
-      <c r="G316" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>321</v>
-      </c>
-      <c r="G317" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>322</v>
-      </c>
-      <c r="G318" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>323</v>
-      </c>
-      <c r="G319" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>324</v>
-      </c>
-      <c r="G320" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>325</v>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-      <c r="C321" t="b">
-        <v>1</v>
-      </c>
-      <c r="D321" t="b">
-        <v>1</v>
-      </c>
-      <c r="E321" t="b">
-        <v>1</v>
-      </c>
-      <c r="G321" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>326</v>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-      <c r="C322" t="b">
-        <v>1</v>
-      </c>
-      <c r="D322" t="b">
-        <v>1</v>
-      </c>
-      <c r="E322" t="b">
-        <v>1</v>
-      </c>
-      <c r="G322" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>327</v>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-      <c r="C323" t="b">
-        <v>1</v>
-      </c>
-      <c r="D323" t="b">
-        <v>1</v>
-      </c>
-      <c r="E323" t="b">
-        <v>1</v>
-      </c>
-      <c r="G323" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>328</v>
-      </c>
-      <c r="G324" t="s">
-        <v>330</v>
+        <v>297</v>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+      <c r="C305" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
+      <c r="F305" t="b">
+        <v>0</v>
+      </c>
+      <c r="G305" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B322 B324:B1048576">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
+  <sortState ref="A2:J305">
+    <sortCondition descending="1" ref="B2:B305"/>
+    <sortCondition descending="1" ref="C2:C305"/>
+    <sortCondition descending="1" ref="E2:E305"/>
+    <sortCondition ref="A2:A305"/>
+  </sortState>
+  <conditionalFormatting sqref="J1 B1:G1048576">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C322 C324:C1048576">
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="55" priority="40">
-      <formula>LEN(TRIM(C1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E2 D16:E17 D29:D31 D62:E62 D34:D61 D63 D22:E28 D32:E33 D64:E322 D324:E1048576">
-    <cfRule type="containsBlanks" dxfId="54" priority="33">
-      <formula>LEN(TRIM(D1))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E15 E3:E21">
-    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E24">
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E31">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="46" priority="24">
-      <formula>LEN(TRIM(E29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E31">
-    <cfRule type="containsBlanks" dxfId="44" priority="21">
-      <formula>LEN(TRIM(E29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E61">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="18">
-      <formula>LEN(TRIM(E34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E61">
-    <cfRule type="containsBlanks" dxfId="38" priority="15">
-      <formula>LEN(TRIM(E34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="34" priority="12">
-      <formula>LEN(TRIM(E63))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsBlanks" dxfId="32" priority="9">
-      <formula>LEN(TRIM(E63))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B323">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C323">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="-1">
-      <formula>LEN(TRIM(C323))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D323:E323">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(D323))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johns Stuff\KSPDev\GameData\STUCK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="stockParts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="320">
   <si>
     <t>Part Config Path</t>
   </si>
@@ -965,6 +970,15 @@
   </si>
   <si>
     <t>Fairing tip uses whole texture</t>
+  </si>
+  <si>
+    <t>texture set need paths fixed and all other params set</t>
+  </si>
+  <si>
+    <t>needs norm data calculated - auto calc failed</t>
+  </si>
+  <si>
+    <t>Section Name</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1510,196 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1557,6 +1760,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1604,7 +1810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1639,7 +1845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,12 +2068,13 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1890,18 +2097,21 @@
         <v>315</v>
       </c>
       <c r="H1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <f>"MASKS: " &amp; COUNTIF(B2:B350, TRUE)</f>
-        <v>MASKS: 205</v>
-      </c>
-      <c r="J1" t="str">
+        <v>MASKS: 204</v>
+      </c>
+      <c r="K1" t="str">
         <f>"TOTAL:" &amp; COUNTIF(A2:A350, "&gt;""")</f>
         <v>TOTAL:304</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1923,8 +2133,11 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1944,10 +2157,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1969,8 +2185,11 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1992,8 +2211,11 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2015,8 +2237,11 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2038,8 +2263,11 @@
       <c r="G7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2061,8 +2289,11 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2084,8 +2315,11 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2107,904 +2341,1021 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>308</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J21" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>308</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>308</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>308</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>308</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>308</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
         <v>308</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J27" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B34" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>63</v>
-      </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
@@ -3021,12 +3372,15 @@
         <v>1</v>
       </c>
       <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -3035,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -3044,15 +3398,15 @@
         <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>308</v>
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -3061,21 +3415,24 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -3084,21 +3441,24 @@
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -3107,21 +3467,24 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -3130,21 +3493,24 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -3153,21 +3519,24 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -3176,21 +3545,24 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -3199,21 +3571,24 @@
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -3222,21 +3597,24 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -3251,15 +3629,18 @@
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -3274,15 +3655,18 @@
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -3297,15 +3681,18 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -3320,15 +3707,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -3343,15 +3733,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -3366,15 +3759,18 @@
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -3389,15 +3785,18 @@
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -3412,15 +3811,18 @@
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -3435,15 +3837,18 @@
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -3458,15 +3863,18 @@
         <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -3481,15 +3889,18 @@
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -3498,21 +3909,24 @@
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -3521,21 +3935,27 @@
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -3544,21 +3964,27 @@
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -3573,15 +3999,18 @@
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -3590,21 +4019,24 @@
         <v>1</v>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -3619,15 +4051,18 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -3642,15 +4077,18 @@
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -3665,27 +4103,30 @@
         <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3693,22 +4134,25 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3716,10 +4160,13 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -3728,21 +4175,24 @@
         <v>1</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -3751,21 +4201,24 @@
         <v>1</v>
       </c>
       <c r="D80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
@@ -3774,21 +4227,24 @@
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -3797,21 +4253,24 @@
         <v>1</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
@@ -3820,21 +4279,24 @@
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -3843,21 +4305,24 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -3866,21 +4331,24 @@
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
@@ -3889,21 +4357,24 @@
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
       <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
@@ -3918,18 +4389,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
-        <v>310</v>
+      <c r="H87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -3944,15 +4415,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -3967,15 +4441,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -3990,15 +4467,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -4010,18 +4490,21 @@
         <v>1</v>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -4033,18 +4516,21 @@
         <v>1</v>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -4056,18 +4542,21 @@
         <v>1</v>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -4079,18 +4568,21 @@
         <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -4102,18 +4594,21 @@
         <v>1</v>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -4125,18 +4620,21 @@
         <v>1</v>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
@@ -4148,18 +4646,21 @@
         <v>1</v>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
@@ -4171,18 +4672,21 @@
         <v>1</v>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -4194,18 +4698,21 @@
         <v>1</v>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
@@ -4217,18 +4724,21 @@
         <v>1</v>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
@@ -4240,18 +4750,21 @@
         <v>1</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
@@ -4263,18 +4776,21 @@
         <v>1</v>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B103" t="b">
         <v>1</v>
@@ -4286,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4294,10 +4810,16 @@
       <c r="G103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
@@ -4306,21 +4828,24 @@
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B105" t="b">
         <v>1</v>
@@ -4329,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -4338,15 +4863,15 @@
         <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B106" t="b">
         <v>1</v>
@@ -4358,18 +4883,21 @@
         <v>1</v>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B107" t="b">
         <v>1</v>
@@ -4378,21 +4906,24 @@
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B108" t="b">
         <v>1</v>
@@ -4404,18 +4935,21 @@
         <v>1</v>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B109" t="b">
         <v>1</v>
@@ -4427,18 +4961,21 @@
         <v>1</v>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B110" t="b">
         <v>1</v>
@@ -4450,18 +4987,21 @@
         <v>1</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -4473,18 +5013,21 @@
         <v>1</v>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -4496,18 +5039,21 @@
         <v>1</v>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -4519,18 +5065,21 @@
         <v>1</v>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B114" t="b">
         <v>1</v>
@@ -4542,18 +5091,21 @@
         <v>1</v>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B115" t="b">
         <v>1</v>
@@ -4565,18 +5117,21 @@
         <v>1</v>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B116" t="b">
         <v>1</v>
@@ -4588,18 +5143,21 @@
         <v>1</v>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B117" t="b">
         <v>1</v>
@@ -4611,18 +5169,21 @@
         <v>1</v>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B118" t="b">
         <v>1</v>
@@ -4634,18 +5195,21 @@
         <v>1</v>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="B119" t="b">
         <v>1</v>
@@ -4657,18 +5221,21 @@
         <v>1</v>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B120" t="b">
         <v>1</v>
@@ -4680,18 +5247,21 @@
         <v>1</v>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B121" t="b">
         <v>1</v>
@@ -4703,18 +5273,21 @@
         <v>1</v>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B122" t="b">
         <v>1</v>
@@ -4726,18 +5299,21 @@
         <v>1</v>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B123" t="b">
         <v>1</v>
@@ -4749,18 +5325,21 @@
         <v>1</v>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B124" t="b">
         <v>1</v>
@@ -4772,18 +5351,21 @@
         <v>1</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B125" t="b">
         <v>1</v>
@@ -4795,18 +5377,21 @@
         <v>1</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B126" t="b">
         <v>1</v>
@@ -4818,18 +5403,21 @@
         <v>1</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B127" t="b">
         <v>1</v>
@@ -4841,18 +5429,21 @@
         <v>1</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B128" t="b">
         <v>1</v>
@@ -4864,18 +5455,21 @@
         <v>1</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B129" t="b">
         <v>1</v>
@@ -4887,18 +5481,21 @@
         <v>1</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B130" t="b">
         <v>1</v>
@@ -4910,18 +5507,21 @@
         <v>1</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B131" t="b">
         <v>1</v>
@@ -4933,18 +5533,21 @@
         <v>1</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B132" t="b">
         <v>1</v>
@@ -4956,18 +5559,21 @@
         <v>1</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B133" t="b">
         <v>1</v>
@@ -4979,18 +5585,21 @@
         <v>1</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B134" t="b">
         <v>1</v>
@@ -5002,18 +5611,21 @@
         <v>1</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B135" t="b">
         <v>1</v>
@@ -5025,18 +5637,21 @@
         <v>1</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B136" t="b">
         <v>1</v>
@@ -5048,18 +5663,21 @@
         <v>1</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B137" t="b">
         <v>1</v>
@@ -5071,18 +5689,21 @@
         <v>1</v>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B138" t="b">
         <v>1</v>
@@ -5094,18 +5715,21 @@
         <v>1</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B139" t="b">
         <v>1</v>
@@ -5117,18 +5741,21 @@
         <v>1</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B140" t="b">
         <v>1</v>
@@ -5140,18 +5767,21 @@
         <v>1</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B141" t="b">
         <v>1</v>
@@ -5163,18 +5793,21 @@
         <v>1</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B142" t="b">
         <v>1</v>
@@ -5186,18 +5819,21 @@
         <v>1</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B143" t="b">
         <v>1</v>
@@ -5209,18 +5845,21 @@
         <v>1</v>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B144" t="b">
         <v>1</v>
@@ -5232,18 +5871,21 @@
         <v>1</v>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B145" t="b">
         <v>1</v>
@@ -5255,18 +5897,21 @@
         <v>1</v>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B146" t="b">
         <v>1</v>
@@ -5278,18 +5923,21 @@
         <v>1</v>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B147" t="b">
         <v>1</v>
@@ -5301,18 +5949,21 @@
         <v>1</v>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B148" t="b">
         <v>1</v>
@@ -5324,18 +5975,21 @@
         <v>1</v>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B149" t="b">
         <v>1</v>
@@ -5347,18 +6001,21 @@
         <v>1</v>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B150" t="b">
         <v>1</v>
@@ -5370,18 +6027,21 @@
         <v>1</v>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B151" t="b">
         <v>1</v>
@@ -5393,18 +6053,21 @@
         <v>1</v>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B152" t="b">
         <v>1</v>
@@ -5416,18 +6079,21 @@
         <v>1</v>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B153" t="b">
         <v>1</v>
@@ -5439,18 +6105,21 @@
         <v>1</v>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B154" t="b">
         <v>1</v>
@@ -5462,18 +6131,21 @@
         <v>1</v>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B155" t="b">
         <v>1</v>
@@ -5485,18 +6157,21 @@
         <v>1</v>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B156" t="b">
         <v>1</v>
@@ -5508,18 +6183,21 @@
         <v>1</v>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B157" t="b">
         <v>1</v>
@@ -5531,18 +6209,21 @@
         <v>1</v>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B158" t="b">
         <v>1</v>
@@ -5554,18 +6235,21 @@
         <v>1</v>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B159" t="b">
         <v>1</v>
@@ -5577,18 +6261,21 @@
         <v>1</v>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B160" t="b">
         <v>1</v>
@@ -5600,18 +6287,21 @@
         <v>1</v>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B161" t="b">
         <v>1</v>
@@ -5623,18 +6313,21 @@
         <v>1</v>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B162" t="b">
         <v>1</v>
@@ -5646,18 +6339,21 @@
         <v>1</v>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B163" t="b">
         <v>1</v>
@@ -5669,18 +6365,21 @@
         <v>1</v>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B164" t="b">
         <v>1</v>
@@ -5692,18 +6391,21 @@
         <v>1</v>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B165" t="b">
         <v>1</v>
@@ -5715,18 +6417,21 @@
         <v>1</v>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B166" t="b">
         <v>1</v>
@@ -5738,18 +6443,21 @@
         <v>1</v>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B167" t="b">
         <v>1</v>
@@ -5761,18 +6469,21 @@
         <v>1</v>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B168" t="b">
         <v>1</v>
@@ -5792,10 +6503,19 @@
       <c r="G168" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>312</v>
+      </c>
+      <c r="J168" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B169" t="b">
         <v>1</v>
@@ -5807,18 +6527,21 @@
         <v>1</v>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B170" t="b">
         <v>1</v>
@@ -5830,18 +6553,21 @@
         <v>1</v>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B171" t="b">
         <v>1</v>
@@ -5853,18 +6579,21 @@
         <v>1</v>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B172" t="b">
         <v>1</v>
@@ -5876,136 +6605,154 @@
         <v>1</v>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
         <v>0</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>255</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>261</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>247</v>
-      </c>
-      <c r="B173" t="b">
-        <v>1</v>
-      </c>
-      <c r="C173" t="b">
-        <v>1</v>
-      </c>
-      <c r="D173" t="b">
-        <v>1</v>
-      </c>
-      <c r="E173" t="b">
-        <v>0</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>248</v>
-      </c>
-      <c r="B174" t="b">
-        <v>1</v>
-      </c>
-      <c r="C174" t="b">
-        <v>1</v>
-      </c>
-      <c r="D174" t="b">
-        <v>1</v>
-      </c>
-      <c r="E174" t="b">
-        <v>0</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>252</v>
-      </c>
-      <c r="B175" t="b">
-        <v>1</v>
-      </c>
-      <c r="C175" t="b">
-        <v>1</v>
-      </c>
-      <c r="D175" t="b">
-        <v>1</v>
-      </c>
-      <c r="E175" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-      <c r="G175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>253</v>
-      </c>
-      <c r="B176" t="b">
-        <v>1</v>
-      </c>
-      <c r="C176" t="b">
-        <v>1</v>
-      </c>
-      <c r="D176" t="b">
-        <v>1</v>
-      </c>
-      <c r="E176" t="b">
-        <v>0</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>255</v>
-      </c>
-      <c r="B177" t="b">
-        <v>1</v>
-      </c>
-      <c r="C177" t="b">
-        <v>1</v>
-      </c>
-      <c r="D177" t="b">
-        <v>1</v>
-      </c>
-      <c r="E177" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B178" t="b">
         <v>1</v>
@@ -6017,18 +6764,24 @@
         <v>1</v>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B179" t="b">
         <v>1</v>
@@ -6040,18 +6793,21 @@
         <v>1</v>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B180" t="b">
         <v>1</v>
@@ -6063,18 +6819,21 @@
         <v>1</v>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B181" t="b">
         <v>1</v>
@@ -6086,21 +6845,21 @@
         <v>1</v>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
         <v>0</v>
       </c>
-      <c r="H181" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B182" t="b">
         <v>1</v>
@@ -6112,21 +6871,21 @@
         <v>1</v>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
         <v>0</v>
       </c>
-      <c r="H182" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B183" t="b">
         <v>1</v>
@@ -6138,18 +6897,21 @@
         <v>1</v>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B184" t="b">
         <v>1</v>
@@ -6161,18 +6923,21 @@
         <v>1</v>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B185" t="b">
         <v>1</v>
@@ -6184,18 +6949,21 @@
         <v>1</v>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B186" t="b">
         <v>1</v>
@@ -6207,18 +6975,21 @@
         <v>1</v>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B187" t="b">
         <v>1</v>
@@ -6230,18 +7001,21 @@
         <v>1</v>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B188" t="b">
         <v>1</v>
@@ -6253,18 +7027,21 @@
         <v>1</v>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B189" t="b">
         <v>1</v>
@@ -6276,18 +7053,21 @@
         <v>1</v>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B190" t="b">
         <v>1</v>
@@ -6299,18 +7079,21 @@
         <v>1</v>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B191" t="b">
         <v>1</v>
@@ -6322,18 +7105,21 @@
         <v>1</v>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B192" t="b">
         <v>1</v>
@@ -6345,18 +7131,21 @@
         <v>1</v>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B193" t="b">
         <v>1</v>
@@ -6368,18 +7157,21 @@
         <v>1</v>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B194" t="b">
         <v>1</v>
@@ -6391,18 +7183,21 @@
         <v>1</v>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B195" t="b">
         <v>1</v>
@@ -6414,18 +7209,21 @@
         <v>1</v>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B196" t="b">
         <v>1</v>
@@ -6437,18 +7235,21 @@
         <v>1</v>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B197" t="b">
         <v>1</v>
@@ -6460,18 +7261,21 @@
         <v>1</v>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B198" t="b">
         <v>1</v>
@@ -6483,18 +7287,21 @@
         <v>1</v>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B199" t="b">
         <v>1</v>
@@ -6506,18 +7313,21 @@
         <v>1</v>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B200" t="b">
         <v>1</v>
@@ -6529,154 +7339,175 @@
         <v>1</v>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" t="b">
+        <v>1</v>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>303</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202" t="b">
+        <v>1</v>
+      </c>
+      <c r="G202" t="b">
+        <v>0</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>304</v>
       </c>
-      <c r="B201" t="b">
-        <v>1</v>
-      </c>
-      <c r="C201" t="b">
-        <v>1</v>
-      </c>
-      <c r="D201" t="b">
-        <v>1</v>
-      </c>
-      <c r="E201" t="b">
-        <v>0</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+      <c r="F203" t="b">
+        <v>1</v>
+      </c>
+      <c r="G203" t="b">
+        <v>0</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>305</v>
       </c>
-      <c r="B202" t="b">
-        <v>1</v>
-      </c>
-      <c r="C202" t="b">
-        <v>1</v>
-      </c>
-      <c r="D202" t="b">
-        <v>1</v>
-      </c>
-      <c r="E202" t="b">
-        <v>0</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="F204" t="b">
+        <v>1</v>
+      </c>
+      <c r="G204" t="b">
+        <v>0</v>
+      </c>
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>306</v>
       </c>
-      <c r="B203" t="b">
-        <v>1</v>
-      </c>
-      <c r="C203" t="b">
-        <v>1</v>
-      </c>
-      <c r="D203" t="b">
-        <v>1</v>
-      </c>
-      <c r="E203" t="b">
-        <v>0</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-      <c r="G203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205" t="b">
+        <v>1</v>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>307</v>
       </c>
-      <c r="B204" t="b">
-        <v>1</v>
-      </c>
-      <c r="C204" t="b">
-        <v>1</v>
-      </c>
-      <c r="D204" t="b">
-        <v>1</v>
-      </c>
-      <c r="E204" t="b">
-        <v>0</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>89</v>
-      </c>
-      <c r="B205" t="b">
-        <v>1</v>
-      </c>
-      <c r="C205" t="b">
-        <v>0</v>
-      </c>
-      <c r="D205" t="b">
-        <v>1</v>
-      </c>
-      <c r="E205" t="b">
-        <v>0</v>
-      </c>
-      <c r="F205" t="b">
-        <v>0</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>90</v>
-      </c>
       <c r="B206" t="b">
         <v>1</v>
       </c>
       <c r="C206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -6698,476 +7529,539 @@
       <c r="G207" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>35</v>
       </c>
-      <c r="B208" t="b">
-        <v>0</v>
-      </c>
-      <c r="C208" t="b">
-        <v>1</v>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
-      </c>
-      <c r="E208" t="b">
-        <v>0</v>
-      </c>
-      <c r="F208" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
+      </c>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>69</v>
       </c>
-      <c r="B209" t="b">
-        <v>0</v>
-      </c>
-      <c r="C209" t="b">
-        <v>1</v>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
-      </c>
-      <c r="E209" t="b">
-        <v>0</v>
-      </c>
-      <c r="F209" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>81</v>
       </c>
-      <c r="B210" t="b">
-        <v>0</v>
-      </c>
-      <c r="C210" t="b">
-        <v>1</v>
-      </c>
-      <c r="D210" t="b">
-        <v>0</v>
-      </c>
-      <c r="E210" t="b">
-        <v>0</v>
-      </c>
-      <c r="F210" t="b">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" t="b">
+        <v>0</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>82</v>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" t="b">
+        <v>0</v>
+      </c>
+      <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>84</v>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+      <c r="C213" t="b">
+        <v>0</v>
+      </c>
+      <c r="D213" t="b">
+        <v>0</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>83</v>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="b">
+        <v>0</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" t="b">
+        <v>0</v>
+      </c>
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>85</v>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" t="b">
+        <v>0</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
+      <c r="G215" t="b">
+        <v>0</v>
+      </c>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>88</v>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="b">
+        <v>0</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
+      </c>
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>107</v>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>108</v>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>109</v>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>110</v>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>111</v>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>116</v>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>117</v>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
+      </c>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>120</v>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="b">
+        <v>0</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>119</v>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>121</v>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>122</v>
       </c>
-      <c r="B211" t="b">
-        <v>0</v>
-      </c>
-      <c r="C211" t="b">
-        <v>1</v>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
-      </c>
-      <c r="E211" t="b">
-        <v>0</v>
-      </c>
-      <c r="F211" t="b">
-        <v>0</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>34</v>
-      </c>
-      <c r="B212" t="b">
-        <v>0</v>
-      </c>
-      <c r="C212" t="b">
-        <v>0</v>
-      </c>
-      <c r="D212" t="b">
-        <v>0</v>
-      </c>
-      <c r="E212" t="b">
-        <v>0</v>
-      </c>
-      <c r="F212" t="b">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>82</v>
-      </c>
-      <c r="B213" t="b">
-        <v>0</v>
-      </c>
-      <c r="C213" t="b">
-        <v>0</v>
-      </c>
-      <c r="D213" t="b">
-        <v>0</v>
-      </c>
-      <c r="E213" t="b">
-        <v>0</v>
-      </c>
-      <c r="F213" t="b">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>84</v>
-      </c>
-      <c r="B214" t="b">
-        <v>0</v>
-      </c>
-      <c r="C214" t="b">
-        <v>0</v>
-      </c>
-      <c r="D214" t="b">
-        <v>0</v>
-      </c>
-      <c r="E214" t="b">
-        <v>0</v>
-      </c>
-      <c r="F214" t="b">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>83</v>
-      </c>
-      <c r="B215" t="b">
-        <v>0</v>
-      </c>
-      <c r="C215" t="b">
-        <v>0</v>
-      </c>
-      <c r="D215" t="b">
-        <v>0</v>
-      </c>
-      <c r="E215" t="b">
-        <v>0</v>
-      </c>
-      <c r="F215" t="b">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>85</v>
-      </c>
-      <c r="B216" t="b">
-        <v>0</v>
-      </c>
-      <c r="C216" t="b">
-        <v>0</v>
-      </c>
-      <c r="D216" t="b">
-        <v>0</v>
-      </c>
-      <c r="E216" t="b">
-        <v>0</v>
-      </c>
-      <c r="F216" t="b">
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>88</v>
-      </c>
-      <c r="B217" t="b">
-        <v>0</v>
-      </c>
-      <c r="C217" t="b">
-        <v>0</v>
-      </c>
-      <c r="D217" t="b">
-        <v>0</v>
-      </c>
-      <c r="E217" t="b">
-        <v>0</v>
-      </c>
-      <c r="F217" t="b">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>106</v>
-      </c>
-      <c r="B218" t="b">
-        <v>0</v>
-      </c>
-      <c r="C218" t="b">
-        <v>0</v>
-      </c>
-      <c r="D218" t="b">
-        <v>0</v>
-      </c>
-      <c r="E218" t="b">
-        <v>0</v>
-      </c>
-      <c r="F218" t="b">
-        <v>0</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>107</v>
-      </c>
-      <c r="B219" t="b">
-        <v>0</v>
-      </c>
-      <c r="C219" t="b">
-        <v>0</v>
-      </c>
-      <c r="D219" t="b">
-        <v>0</v>
-      </c>
-      <c r="E219" t="b">
-        <v>0</v>
-      </c>
-      <c r="F219" t="b">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>108</v>
-      </c>
-      <c r="B220" t="b">
-        <v>0</v>
-      </c>
-      <c r="C220" t="b">
-        <v>0</v>
-      </c>
-      <c r="D220" t="b">
-        <v>0</v>
-      </c>
-      <c r="E220" t="b">
-        <v>0</v>
-      </c>
-      <c r="F220" t="b">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>109</v>
-      </c>
-      <c r="B221" t="b">
-        <v>0</v>
-      </c>
-      <c r="C221" t="b">
-        <v>0</v>
-      </c>
-      <c r="D221" t="b">
-        <v>0</v>
-      </c>
-      <c r="E221" t="b">
-        <v>0</v>
-      </c>
-      <c r="F221" t="b">
-        <v>0</v>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>110</v>
-      </c>
-      <c r="B222" t="b">
-        <v>0</v>
-      </c>
-      <c r="C222" t="b">
-        <v>0</v>
-      </c>
-      <c r="D222" t="b">
-        <v>0</v>
-      </c>
-      <c r="E222" t="b">
-        <v>0</v>
-      </c>
-      <c r="F222" t="b">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>111</v>
-      </c>
-      <c r="B223" t="b">
-        <v>0</v>
-      </c>
-      <c r="C223" t="b">
-        <v>0</v>
-      </c>
-      <c r="D223" t="b">
-        <v>0</v>
-      </c>
-      <c r="E223" t="b">
-        <v>0</v>
-      </c>
-      <c r="F223" t="b">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224" t="b">
-        <v>0</v>
-      </c>
-      <c r="C224" t="b">
-        <v>0</v>
-      </c>
-      <c r="D224" t="b">
-        <v>0</v>
-      </c>
-      <c r="E224" t="b">
-        <v>0</v>
-      </c>
-      <c r="F224" t="b">
-        <v>0</v>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>117</v>
-      </c>
-      <c r="B225" t="b">
-        <v>0</v>
-      </c>
-      <c r="C225" t="b">
-        <v>0</v>
-      </c>
-      <c r="D225" t="b">
-        <v>0</v>
-      </c>
-      <c r="E225" t="b">
-        <v>0</v>
-      </c>
-      <c r="F225" t="b">
-        <v>0</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>120</v>
-      </c>
-      <c r="B226" t="b">
-        <v>0</v>
-      </c>
-      <c r="C226" t="b">
-        <v>0</v>
-      </c>
-      <c r="D226" t="b">
-        <v>0</v>
-      </c>
-      <c r="E226" t="b">
-        <v>0</v>
-      </c>
-      <c r="F226" t="b">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>119</v>
-      </c>
-      <c r="B227" t="b">
-        <v>0</v>
-      </c>
-      <c r="C227" t="b">
-        <v>0</v>
-      </c>
-      <c r="D227" t="b">
-        <v>0</v>
-      </c>
-      <c r="E227" t="b">
-        <v>0</v>
-      </c>
-      <c r="F227" t="b">
-        <v>0</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>121</v>
-      </c>
       <c r="B228" t="b">
         <v>0</v>
       </c>
       <c r="C228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -7181,8 +8075,11 @@
       <c r="G228" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>123</v>
       </c>
@@ -7204,8 +8101,11 @@
       <c r="G229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>124</v>
       </c>
@@ -7227,8 +8127,11 @@
       <c r="G230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>125</v>
       </c>
@@ -7250,8 +8153,11 @@
       <c r="G231" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>127</v>
       </c>
@@ -7273,8 +8179,11 @@
       <c r="G232" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>128</v>
       </c>
@@ -7296,8 +8205,11 @@
       <c r="G233" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>129</v>
       </c>
@@ -7319,8 +8231,11 @@
       <c r="G234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>134</v>
       </c>
@@ -7342,8 +8257,11 @@
       <c r="G235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>135</v>
       </c>
@@ -7365,8 +8283,11 @@
       <c r="G236" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>137</v>
       </c>
@@ -7388,8 +8309,11 @@
       <c r="G237" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>149</v>
       </c>
@@ -7411,8 +8335,11 @@
       <c r="G238" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>150</v>
       </c>
@@ -7434,8 +8361,11 @@
       <c r="G239" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>151</v>
       </c>
@@ -7457,8 +8387,11 @@
       <c r="G240" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>152</v>
       </c>
@@ -7480,8 +8413,11 @@
       <c r="G241" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>170</v>
       </c>
@@ -7503,8 +8439,11 @@
       <c r="G242" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>179</v>
       </c>
@@ -7526,8 +8465,11 @@
       <c r="G243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>180</v>
       </c>
@@ -7549,8 +8491,11 @@
       <c r="G244" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>181</v>
       </c>
@@ -7572,8 +8517,11 @@
       <c r="G245" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>182</v>
       </c>
@@ -7595,8 +8543,11 @@
       <c r="G246" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>186</v>
       </c>
@@ -7618,8 +8569,11 @@
       <c r="G247" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -7641,8 +8595,11 @@
       <c r="G248" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -7664,8 +8621,11 @@
       <c r="G249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>189</v>
       </c>
@@ -7687,8 +8647,11 @@
       <c r="G250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>190</v>
       </c>
@@ -7710,8 +8673,11 @@
       <c r="G251" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>191</v>
       </c>
@@ -7733,8 +8699,11 @@
       <c r="G252" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>192</v>
       </c>
@@ -7756,8 +8725,11 @@
       <c r="G253" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>193</v>
       </c>
@@ -7779,8 +8751,11 @@
       <c r="G254" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>194</v>
       </c>
@@ -7802,8 +8777,11 @@
       <c r="G255" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>195</v>
       </c>
@@ -7825,8 +8803,11 @@
       <c r="G256" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>196</v>
       </c>
@@ -7848,8 +8829,11 @@
       <c r="G257" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>197</v>
       </c>
@@ -7871,8 +8855,11 @@
       <c r="G258" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>198</v>
       </c>
@@ -7894,8 +8881,11 @@
       <c r="G259" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>201</v>
       </c>
@@ -7917,8 +8907,11 @@
       <c r="G260" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>202</v>
       </c>
@@ -7940,8 +8933,11 @@
       <c r="G261" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>205</v>
       </c>
@@ -7963,8 +8959,11 @@
       <c r="G262" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>210</v>
       </c>
@@ -7986,8 +8985,11 @@
       <c r="G263" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>211</v>
       </c>
@@ -8009,8 +9011,11 @@
       <c r="G264" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>212</v>
       </c>
@@ -8032,8 +9037,11 @@
       <c r="G265" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>213</v>
       </c>
@@ -8055,8 +9063,11 @@
       <c r="G266" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>214</v>
       </c>
@@ -8078,8 +9089,11 @@
       <c r="G267" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>215</v>
       </c>
@@ -8101,8 +9115,11 @@
       <c r="G268" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>221</v>
       </c>
@@ -8124,8 +9141,11 @@
       <c r="G269" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>222</v>
       </c>
@@ -8147,8 +9167,11 @@
       <c r="G270" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>223</v>
       </c>
@@ -8170,8 +9193,11 @@
       <c r="G271" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>224</v>
       </c>
@@ -8193,8 +9219,11 @@
       <c r="G272" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -8216,8 +9245,11 @@
       <c r="G273" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>227</v>
       </c>
@@ -8239,8 +9271,11 @@
       <c r="G274" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>228</v>
       </c>
@@ -8262,8 +9297,11 @@
       <c r="G275" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>229</v>
       </c>
@@ -8285,8 +9323,11 @@
       <c r="G276" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>230</v>
       </c>
@@ -8308,8 +9349,11 @@
       <c r="G277" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>235</v>
       </c>
@@ -8331,8 +9375,11 @@
       <c r="G278" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>236</v>
       </c>
@@ -8354,8 +9401,11 @@
       <c r="G279" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>237</v>
       </c>
@@ -8377,8 +9427,11 @@
       <c r="G280" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>238</v>
       </c>
@@ -8400,8 +9453,11 @@
       <c r="G281" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>239</v>
       </c>
@@ -8423,8 +9479,11 @@
       <c r="G282" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>249</v>
       </c>
@@ -8446,8 +9505,11 @@
       <c r="G283" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>250</v>
       </c>
@@ -8469,8 +9531,11 @@
       <c r="G284" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>251</v>
       </c>
@@ -8492,8 +9557,11 @@
       <c r="G285" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>254</v>
       </c>
@@ -8515,8 +9583,11 @@
       <c r="G286" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>256</v>
       </c>
@@ -8538,8 +9609,11 @@
       <c r="G287" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>260</v>
       </c>
@@ -8561,8 +9635,11 @@
       <c r="G288" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>266</v>
       </c>
@@ -8584,8 +9661,11 @@
       <c r="G289" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>268</v>
       </c>
@@ -8607,8 +9687,11 @@
       <c r="G290" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>269</v>
       </c>
@@ -8630,8 +9713,11 @@
       <c r="G291" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>279</v>
       </c>
@@ -8653,8 +9739,11 @@
       <c r="G292" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>280</v>
       </c>
@@ -8676,8 +9765,11 @@
       <c r="G293" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -8699,8 +9791,11 @@
       <c r="G294" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>281</v>
       </c>
@@ -8722,8 +9817,11 @@
       <c r="G295" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>283</v>
       </c>
@@ -8745,8 +9843,11 @@
       <c r="G296" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>284</v>
       </c>
@@ -8768,8 +9869,11 @@
       <c r="G297" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>285</v>
       </c>
@@ -8791,8 +9895,11 @@
       <c r="G298" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>289</v>
       </c>
@@ -8814,8 +9921,11 @@
       <c r="G299" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>290</v>
       </c>
@@ -8837,8 +9947,11 @@
       <c r="G300" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>293</v>
       </c>
@@ -8860,8 +9973,11 @@
       <c r="G301" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>294</v>
       </c>
@@ -8883,8 +9999,11 @@
       <c r="G302" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>295</v>
       </c>
@@ -8906,8 +10025,11 @@
       <c r="G303" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>296</v>
       </c>
@@ -8929,8 +10051,11 @@
       <c r="G304" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>297</v>
       </c>
@@ -8950,24 +10075,25 @@
         <v>0</v>
       </c>
       <c r="G305" t="b">
+        <v>0</v>
+      </c>
+      <c r="H305" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:J305">
     <sortCondition descending="1" ref="B2:B305"/>
-    <sortCondition descending="1" ref="C2:C305"/>
-    <sortCondition descending="1" ref="E2:E305"/>
     <sortCondition ref="A2:A305"/>
   </sortState>
-  <conditionalFormatting sqref="J1 B1:G1048576">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+  <conditionalFormatting sqref="K1 B1:H1048576">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johns Stuff\KSPDev\GameData\STUCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_source\STUCK\GameData\STUCK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1510,223 +1510,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2057,8 +1841,8 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -5192,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -5218,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="b">
         <v>1</v>
@@ -5244,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -5270,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>

--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -1841,8 +1841,8 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,25 +1897,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -2409,21 +2409,15 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>308</v>
-      </c>
-      <c r="J21" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2455,7 +2449,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2487,7 +2481,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2505,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2514,12 +2508,12 @@
         <v>308</v>
       </c>
       <c r="J24" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -2551,7 +2545,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -2583,7 +2577,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -2615,7 +2609,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2624,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -2639,12 +2633,15 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="J28" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -2666,11 +2663,14 @@
       </c>
       <c r="H29" t="b">
         <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -2722,22 +2722,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -3632,22 +3632,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -3728,18 +3728,15 @@
         <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -3748,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -3757,18 +3754,15 @@
         <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
@@ -3794,7 +3788,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -3820,7 +3814,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -3829,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -3838,15 +3832,18 @@
         <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -3855,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -3864,15 +3861,18 @@
         <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -3898,22 +3898,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
       </c>
       <c r="C77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -3924,22 +3924,22 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="E79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -3976,22 +3976,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -4002,22 +4002,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -4028,22 +4028,22 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -4054,22 +4054,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -4132,22 +4132,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -4158,13 +4158,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
@@ -4219,13 +4219,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
@@ -4245,13 +4245,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -4392,426 +4392,423 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>114</v>
-      </c>
-      <c r="B96" t="b">
-        <v>1</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
-      </c>
-      <c r="D96" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>118</v>
-      </c>
-      <c r="B98" t="b">
-        <v>1</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" t="b">
-        <v>1</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" t="b">
-        <v>1</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>136</v>
-      </c>
-      <c r="B104" t="b">
-        <v>1</v>
-      </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" t="b">
-        <v>1</v>
-      </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" t="b">
-        <v>1</v>
-      </c>
-      <c r="C107" t="b">
-        <v>1</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="b">
-        <v>1</v>
-      </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-      <c r="D108" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="b">
-        <v>1</v>
-      </c>
-      <c r="C109" t="b">
-        <v>1</v>
-      </c>
-      <c r="D109" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" t="b">
-        <v>1</v>
-      </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
-      <c r="D110" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" t="b">
-        <v>1</v>
-      </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
-      <c r="D111" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>145</v>
       </c>
       <c r="B112" t="b">
         <v>1</v>
@@ -4837,7 +4834,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B113" t="b">
         <v>1</v>
@@ -4863,22 +4860,22 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
@@ -4889,22 +4886,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B116" t="b">
         <v>1</v>
@@ -4941,22 +4938,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -4967,22 +4964,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -4993,22 +4990,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -5019,10 +5016,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -5031,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
@@ -5045,22 +5042,22 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="b">
         <v>0</v>
@@ -5071,22 +5068,22 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -5097,22 +5094,22 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="b">
         <v>0</v>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B124" t="b">
         <v>1</v>
@@ -5149,22 +5146,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="b">
         <v>0</v>
@@ -5175,22 +5172,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="b">
         <v>0</v>
@@ -5201,22 +5198,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="b">
         <v>0</v>
@@ -5227,7 +5224,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B128" t="b">
         <v>1</v>
@@ -5251,9 +5248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B129" t="b">
         <v>1</v>
@@ -5277,9 +5274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B130" t="b">
         <v>1</v>
@@ -5303,9 +5300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B131" t="b">
         <v>1</v>
@@ -5320,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
         <v>0</v>
@@ -5328,25 +5325,28 @@
       <c r="H131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="b">
         <v>0</v>
@@ -5355,24 +5355,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="b">
         <v>0</v>
@@ -5381,9 +5381,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B134" t="b">
         <v>1</v>
@@ -5407,24 +5407,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
         <v>0</v>
@@ -5433,9 +5433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B136" t="b">
         <v>1</v>
@@ -5459,9 +5459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B137" t="b">
         <v>1</v>
@@ -5485,9 +5485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B138" t="b">
         <v>1</v>
@@ -5511,9 +5511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B139" t="b">
         <v>1</v>
@@ -5537,9 +5537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B140" t="b">
         <v>1</v>
@@ -5563,9 +5563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B141" t="b">
         <v>1</v>
@@ -5589,9 +5589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B142" t="b">
         <v>1</v>
@@ -5615,9 +5615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B143" t="b">
         <v>1</v>
@@ -5641,9 +5641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B144" t="b">
         <v>1</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="B145" t="b">
         <v>1</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="B146" t="b">
         <v>1</v>
@@ -5721,22 +5721,22 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="b">
         <v>0</v>
@@ -5747,22 +5747,22 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="b">
         <v>0</v>
@@ -5773,22 +5773,22 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="b">
         <v>0</v>
@@ -5799,22 +5799,22 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B151" t="b">
         <v>1</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B152" t="b">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B153" t="b">
         <v>1</v>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B154" t="b">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="B155" t="b">
         <v>1</v>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="B156" t="b">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="B157" t="b">
         <v>1</v>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B158" t="b">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="B159" t="b">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="B160" t="b">
         <v>1</v>
@@ -6083,9 +6083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="B161" t="b">
         <v>1</v>
@@ -6109,9 +6109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="B162" t="b">
         <v>1</v>
@@ -6135,9 +6135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="B163" t="b">
         <v>1</v>
@@ -6161,9 +6161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="B164" t="b">
         <v>1</v>
@@ -6187,9 +6187,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="B165" t="b">
         <v>1</v>
@@ -6213,9 +6213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="B166" t="b">
         <v>1</v>
@@ -6239,9 +6239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="B167" t="b">
         <v>1</v>
@@ -6265,18 +6265,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
@@ -6290,16 +6290,10 @@
       <c r="H168" t="b">
         <v>0</v>
       </c>
-      <c r="I168" t="s">
-        <v>312</v>
-      </c>
-      <c r="J168" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="B169" t="b">
         <v>1</v>
@@ -6323,9 +6317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="B170" t="b">
         <v>1</v>
@@ -6349,9 +6343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="B171" t="b">
         <v>1</v>
@@ -6375,9 +6369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="B172" t="b">
         <v>1</v>
@@ -6401,9 +6395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="B173" t="b">
         <v>1</v>
@@ -6427,9 +6421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B174" t="b">
         <v>1</v>
@@ -6453,24 +6447,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
         <v>0</v>
@@ -6479,9 +6473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="B176" t="b">
         <v>1</v>
@@ -6505,24 +6499,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="b">
         <v>0</v>
@@ -6530,28 +6524,25 @@
       <c r="H177" t="b">
         <v>0</v>
       </c>
-      <c r="I177" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="b">
         <v>0</v>
@@ -6559,28 +6550,25 @@
       <c r="H178" t="b">
         <v>0</v>
       </c>
-      <c r="I178" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="b">
         <v>0</v>
@@ -6589,24 +6577,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="b">
         <v>0</v>
@@ -6615,9 +6603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="B181" t="b">
         <v>1</v>
@@ -6641,9 +6629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="B182" t="b">
         <v>1</v>
@@ -6667,9 +6655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="B183" t="b">
         <v>1</v>
@@ -6693,24 +6681,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="b">
         <v>0</v>
@@ -6719,24 +6707,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="b">
         <v>0</v>
@@ -6745,24 +6733,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="b">
         <v>0</v>
@@ -6771,24 +6759,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="b">
         <v>0</v>
@@ -6797,24 +6785,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="b">
         <v>0</v>
@@ -6823,24 +6811,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="b">
         <v>0</v>
@@ -6849,24 +6837,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="b">
         <v>0</v>
@@ -6875,24 +6863,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="b">
         <v>0</v>
@@ -6901,24 +6889,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="b">
         <v>0</v>
@@ -6929,22 +6917,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="b">
         <v>0</v>
@@ -6955,22 +6943,22 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="b">
         <v>0</v>
@@ -6981,22 +6969,22 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="b">
         <v>0</v>
@@ -7007,22 +6995,22 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="b">
         <v>0</v>
@@ -7033,7 +7021,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="B197" t="b">
         <v>1</v>
@@ -7059,7 +7047,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="B198" t="b">
         <v>1</v>
@@ -7085,22 +7073,22 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" t="b">
         <v>0</v>
@@ -7111,22 +7099,22 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="b">
         <v>0</v>
@@ -7137,7 +7125,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="B201" t="b">
         <v>1</v>
@@ -7163,7 +7151,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="B202" t="b">
         <v>1</v>
@@ -7189,22 +7177,22 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="b">
         <v>0</v>
@@ -7215,7 +7203,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="B204" t="b">
         <v>1</v>
@@ -7241,7 +7229,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="B205" t="b">
         <v>1</v>
@@ -7267,7 +7255,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="B206" t="b">
         <v>1</v>
@@ -7293,22 +7281,22 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="b">
         <v>1</v>
       </c>
       <c r="D207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
         <v>0</v>
@@ -7319,7 +7307,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="B208" t="b">
         <v>0</v>
@@ -7345,13 +7333,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="B209" t="b">
         <v>0</v>
       </c>
       <c r="C209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -7371,13 +7359,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="B210" t="b">
         <v>0</v>
       </c>
       <c r="C210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -7397,13 +7385,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B211" t="b">
         <v>0</v>
       </c>
       <c r="C211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -7423,7 +7411,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B212" t="b">
         <v>0</v>
@@ -7449,7 +7437,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="B213" t="b">
         <v>0</v>
@@ -7475,22 +7463,22 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
         <v>0</v>
@@ -7501,22 +7489,22 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
         <v>0</v>
@@ -7527,22 +7515,22 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
         <v>0</v>
@@ -7553,22 +7541,22 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
         <v>0</v>
@@ -7579,22 +7567,22 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
         <v>0</v>
@@ -7605,7 +7593,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="B219" t="b">
         <v>0</v>
@@ -7631,7 +7619,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="B220" t="b">
         <v>0</v>
@@ -7657,7 +7645,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B221" t="b">
         <v>0</v>
@@ -7683,7 +7671,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="B222" t="b">
         <v>0</v>
@@ -7709,7 +7697,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B223" t="b">
         <v>0</v>
@@ -7735,22 +7723,22 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
         <v>0</v>
@@ -7761,7 +7749,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="B225" t="b">
         <v>0</v>
@@ -7787,7 +7775,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="B226" t="b">
         <v>0</v>
@@ -7813,7 +7801,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="B227" t="b">
         <v>0</v>
@@ -7839,13 +7827,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="B228" t="b">
         <v>0</v>
       </c>
       <c r="C228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -7865,22 +7853,22 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
         <v>0</v>
@@ -7891,22 +7879,22 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
         <v>0</v>
@@ -7917,22 +7905,22 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
         <v>0</v>
@@ -7943,22 +7931,22 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
         <v>0</v>
@@ -7969,7 +7957,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="B233" t="b">
         <v>0</v>
@@ -7995,7 +7983,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="B234" t="b">
         <v>0</v>
@@ -8021,7 +8009,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="B235" t="b">
         <v>0</v>
@@ -8047,7 +8035,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="B236" t="b">
         <v>0</v>
@@ -8073,7 +8061,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="B237" t="b">
         <v>0</v>
@@ -8099,22 +8087,22 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
         <v>0</v>
@@ -8125,22 +8113,22 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
         <v>0</v>
@@ -8151,22 +8139,22 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
         <v>0</v>
@@ -8175,24 +8163,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
         <v>0</v>
@@ -8201,24 +8189,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
         <v>0</v>
@@ -8227,24 +8215,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
         <v>0</v>
@@ -8253,18 +8241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="b">
         <v>0</v>
@@ -8278,25 +8266,31 @@
       <c r="H244" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>312</v>
+      </c>
+      <c r="J244" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
         <v>0</v>
@@ -8305,24 +8299,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
         <v>0</v>
@@ -8331,9 +8325,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="B247" t="b">
         <v>0</v>
@@ -8357,9 +8351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="B248" t="b">
         <v>0</v>
@@ -8383,9 +8377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="B249" t="b">
         <v>0</v>
@@ -8409,24 +8403,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
         <v>0</v>
@@ -8435,24 +8429,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
         <v>0</v>
@@ -8461,9 +8455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="B252" t="b">
         <v>0</v>
@@ -8487,24 +8481,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
         <v>0</v>
@@ -8513,9 +8507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="B254" t="b">
         <v>0</v>
@@ -8539,24 +8533,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" t="b">
         <v>0</v>
@@ -8565,9 +8559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="B256" t="b">
         <v>0</v>
@@ -8591,24 +8585,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
         <v>0</v>
@@ -8617,9 +8611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="B258" t="b">
         <v>0</v>
@@ -8643,24 +8637,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
         <v>0</v>
@@ -8668,25 +8662,28 @@
       <c r="H259" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
         <v>0</v>
@@ -8694,25 +8691,28 @@
       <c r="H260" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
         <v>0</v>
@@ -8721,24 +8721,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
         <v>0</v>
@@ -8747,24 +8747,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
         <v>0</v>
@@ -8773,9 +8773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="B264" t="b">
         <v>0</v>
@@ -8799,24 +8799,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
         <v>0</v>
@@ -8825,9 +8825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B266" t="b">
         <v>0</v>
@@ -8851,9 +8851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="B267" t="b">
         <v>0</v>
@@ -8877,24 +8877,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
         <v>0</v>
@@ -8903,24 +8903,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
         <v>0</v>
@@ -8929,24 +8929,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" t="b">
         <v>0</v>
@@ -8955,24 +8955,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
         <v>0</v>
@@ -8981,24 +8981,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" t="b">
         <v>0</v>
@@ -9009,22 +9009,22 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" t="b">
         <v>0</v>
@@ -9035,22 +9035,22 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" t="b">
         <v>0</v>
@@ -9061,22 +9061,22 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" t="b">
         <v>0</v>
@@ -9087,22 +9087,22 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" t="b">
         <v>0</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="B277" t="b">
         <v>0</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="B278" t="b">
         <v>0</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="B279" t="b">
         <v>0</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="B280" t="b">
         <v>0</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B281" t="b">
         <v>0</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="B282" t="b">
         <v>0</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B283" t="b">
         <v>0</v>
@@ -9295,22 +9295,22 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" t="b">
         <v>0</v>
@@ -9321,22 +9321,22 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
         <v>0</v>
@@ -9347,22 +9347,22 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286" t="b">
         <v>0</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="B287" t="b">
         <v>0</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="B288" t="b">
         <v>0</v>
@@ -9425,22 +9425,22 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="b">
         <v>0</v>
@@ -9451,22 +9451,22 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" t="b">
         <v>0</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="B291" t="b">
         <v>0</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B292" t="b">
         <v>0</v>
@@ -9529,7 +9529,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B293" t="b">
         <v>0</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B294" t="b">
         <v>0</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B295" t="b">
         <v>0</v>
@@ -9607,22 +9607,22 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="b">
         <v>0</v>
@@ -9633,22 +9633,22 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="b">
         <v>0</v>
@@ -9659,22 +9659,22 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G298" t="b">
         <v>0</v>
@@ -9685,22 +9685,22 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G299" t="b">
         <v>0</v>
@@ -9711,22 +9711,22 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300" t="b">
         <v>0</v>
@@ -9737,22 +9737,22 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G301" t="b">
         <v>0</v>
@@ -9763,22 +9763,22 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" t="b">
         <v>0</v>
@@ -9789,22 +9789,22 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" t="b">
         <v>0</v>
@@ -9815,22 +9815,22 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" t="b">
         <v>0</v>
@@ -9841,22 +9841,22 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" t="b">
         <v>0</v>
@@ -9866,8 +9866,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J305">
-    <sortCondition descending="1" ref="B2:B305"/>
+  <sortState ref="A2:K305">
     <sortCondition ref="A2:A305"/>
   </sortState>
   <conditionalFormatting sqref="K1 B1:H1048576">

--- a/GameData/STUCK/stockParts.xlsx
+++ b/GameData/STUCK/stockParts.xlsx
@@ -1842,7 +1842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="J1" t="str">
         <f>"MASKS: " &amp; COUNTIF(B2:B350, TRUE)</f>
-        <v>MASKS: 204</v>
+        <v>MASKS: 205</v>
       </c>
       <c r="K1" t="str">
         <f>"TOTAL:" &amp; COUNTIF(A2:A350, "&gt;""")</f>
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
